--- a/src/data/标注语料_20220430.xlsx
+++ b/src/data/标注语料_20220430.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jclian91\PycharmProjects\wsd_with_text_extraction\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83C3186-8121-4535-8ABD-F5A43495BC2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8AD754C-1CD6-4C5E-BD4F-930F417B5B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1125" yWindow="-120" windowWidth="27795" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11560" uniqueCount="3578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12012" uniqueCount="3709">
   <si>
     <t>文本</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -12010,12 +12010,507 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>红军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国工农红军的简称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E4%B8%AD%E5%9B%BD%E5%B7%A5%E5%86%9C%E7%BA%A2%E5%86%9B/425591?fromtitle=%E7%BA%A2%E5%86%9B&amp;fromid=458275&amp;fr=aladdin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国工农红军是中国土地革命战争时期，中国共产党领导的人民军队。简称“红军”。中国人民解放军的前身。</t>
+  </si>
+  <si>
+    <t>1927年黄安县（今红安）农民政府大门两旁写对联出现的“红军”，是我国历史上第一次用“红军”一词称呼中国共产党领导的革命武装。</t>
+  </si>
+  <si>
+    <t>1928年5月25日，中国共产党中央委员会决定，全国各地工农革命军正式定名为红军。1930年后，又逐渐改称中国工农红军。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">在国共内战时期，中国工农红军不断发展壮大，先后组成了第一方面军（曾经称中央红军）、第四方面军、第二方面军和西北红军等红军部队，建立了中央革命根据地和湘鄂西、鄂豫皖、琼崖、闽浙赣、湘鄂赣、湘赣、左右江、川陕、陕甘、湘鄂川黔等革命根据地，连续粉碎了国民革命军多次“围剿”和“清剿”。 </t>
+  </si>
+  <si>
+    <t>抗日战争全面爆发后，根据中共中央同国民政府达成的协议，主力红军改编为国民革命军第八路军（简称八路军）；在江西、福建、浙江、广东、湖南、湖北、河南、安徽8省13个地区坚持斗争的红军和游击队改编为国民革命军陆军新编第四军（简称新四军）。</t>
+  </si>
+  <si>
+    <t>黄麻起义后在中国首次出现“红军”</t>
+  </si>
+  <si>
+    <t>“红军”一词最早见于一副对联 。1927年蒋介石发动了“4.12”反革命政变，同年11月13日，中国共产党领导的湖北黄安县（今红安县）、麻城县农民自卫军攻占了国民党占据的黄安县城，史称黄麻起义，旋即成立了“黄安县农民政府”。</t>
+  </si>
+  <si>
+    <t>1927年12月11日凌晨，爆发了震惊中外的广州起义。起义领导机关在发布的《红旗号外》中宣布组织“工农红军”，并公布了工农红军领导人名单，参加起义的工农兵在起义爆发的当天就打出了“工农红军”的旗帜。</t>
+  </si>
+  <si>
+    <t>当日凌晨2时左右，张太雷、叶挺等领导人来到国民革命军第二方面军第四军军官教导团北较场四标营驻地举行誓师大会。在誓师大会上，广州起义总指挥部公开举起了“工农红军”的旗帜，将参加起义的部队统称为工农红军，工农红军总司令由叶挺担任。参加起义的部队包括国民革命军第四军教导团全部、警卫团一部和广州工人赤卫队七个联队以及市郊部分农民武装。</t>
+  </si>
+  <si>
+    <t>虽然广州起义不久便遭到失败，但“工农红军”的响亮名称却在全国不胫而走。从此，“红军”的称号在各地的革命武装中开始陆续使用。</t>
+  </si>
+  <si>
+    <t>在割据区域所建立的红军，可正式定名为红军，取消以前工农革命军的名义。” “红军中政治工作，必须特别注意”。“红军应由苏维埃派政治委员监督军官，并负责进行政治工作。政治委员应即为党代表”。</t>
+  </si>
+  <si>
+    <t>此后中国工农革命军第四军改称中国工农红军第四军。</t>
+  </si>
+  <si>
+    <t>一、政治指导员是红军战士政治工作的指导员和进行者。</t>
+  </si>
+  <si>
+    <t>二、政治委员会是中国共产党在红军中全权代表，他是代表政权及党的双重意义，在执行行党在红军政治路线及纪律方面，是完全负责者。政治委员在政治方面有单独发行命令之权，并在与同级军事指挥员发生争执时，有停止军事指挥员命令之权。</t>
+  </si>
+  <si>
+    <t>四、连队党支部“是党在红军中的基本单位的组织，每连中有党员三人以上者均得组织支部”。</t>
+  </si>
+  <si>
+    <t>1936年10月，红四方面军、红二方面军与前来接应的红一方面军在甘肃会宁地区会师，宣告中国工农红军长征胜利结束，那为什么没有红军第三方面军。</t>
+  </si>
+  <si>
+    <t>红军由军发展到方面军，经历了一个曲折的过程。在1930年1月以前，中央还没有统一编制红军的计划。那时中央认为：“中国，只有朱、毛、彭德怀的部队可以称为红军，其余如贺龙等都不能叫做红军”，只能算作游击队。因此，各地红军的编制及番号也就各行其是了。</t>
+  </si>
+  <si>
+    <t>红军抗日先遣队：红军长征前，红七军团首先转移至闽浙赣根据地，与当地红十军合编为红十军团，组成抗日先遣队，由方志敏领导。</t>
+  </si>
+  <si>
+    <t>东北地区红军：1932年9月，根据中共中央的指示，中共满洲省委将吉林省磐石、海龙县等地农民武装编为中国工农红军第三十二军，全军共500余人。由李红光、孟洁民负责。1932年11月间，受中共中央派遣，杨靖宇赴红三十二军担任领导工作。</t>
+  </si>
+  <si>
+    <t>1936年9月，党中央批准成立中央革命军事委员会主席团，同年12月，扩大组织，组成中央军委。1936年10月组成前敌总指挥部，下设司令部、政治部、供给部、卫生部，辖第1方面军（西征期间称西方野战军，之后，所辖部队统归前敌总指挥部指挥）、第2方面军、后方司令部。1937年1月，红军大学改称中国人民抗日军政大学。</t>
+  </si>
+  <si>
+    <t>红军队伍在冰天雪地里艰难地前进。严寒把云中山冻成了一个大冰坨。狂风呼啸，大雪纷飞，似乎要吞掉这支装备很差的队伍。</t>
+  </si>
+  <si>
+    <t>这次战斗，是我红军指挥员抓住有利战机，实施进攻作战，红军战士以极高的政治热情，发扬勇猛冲杀、速战速决的战斗作风，和广大人民群众密切配合，取得的一次重大胜利；也是鄂豫皖红军创建以后在一次作战中歼灭整师敌人的一次空前大捷。这一仗，重挫了敌人的锐气，打出了红军的军威，鼓舞了苏区人民，影响十分深远。</t>
+  </si>
+  <si>
+    <t>关于红军改编成国民革命军第八路军的命令</t>
+  </si>
+  <si>
+    <t>为着实现共产党中央给国民党三中全会红军改名之保证，特依据与国民党及南京政治谈判结果，宣布红军改名为国民革命军第八路军。</t>
+  </si>
+  <si>
+    <t>一九二七年八月一日南昌起义部队着穿国民革命军的服装，系红领巾以示区别。　同年九月湖南秋收起义部队穿各式服装，佩戴着红布袖章。1928年5月红军在江西宁岗县建立起红军第一个被服厂--桃寮被服厂。</t>
+  </si>
+  <si>
+    <t>1929年3月，红4军解放长汀后，筹5万余元，赶制4000套军装，从此第一批正规的红军军装诞生。军服款式仿照苏联红军的军装(中山装式，下有两个口袋)和列宁戴过的八角帽式样进行缝制，然后在军衣的领子上缝上两块红布领章、八角帽前缝上五角星。</t>
+  </si>
+  <si>
+    <t>1929年5月1日，中央苏区的红军为了纪念列宁逝世五周年，红四军前委决定将4000套灰色军衣的红领章上都缀上黑边，表示纪念。</t>
+  </si>
+  <si>
+    <t>1931年中华苏维埃共和国临时中央政府建立后，依照赵品三设计的中国工农红军军服，各根据地红军的服装逐渐统一，但由于受经济条件的制约，布料、颜色还不尽相同</t>
+  </si>
+  <si>
+    <t>中国工农红军历史上的35个军 (18)</t>
+  </si>
+  <si>
+    <t>“百将团”红军时期主要战斗</t>
+  </si>
+  <si>
+    <t>红军”称呼最早出自红安  ．黄冈日报[</t>
+  </si>
+  <si>
+    <t>红军反“围剿”战争  ．中国共产党新闻网</t>
+  </si>
+  <si>
+    <t>中国工农红军改编为国民革命军第八路军</t>
+  </si>
+  <si>
+    <t>元末抗元武装力量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E7%BA%A2%E5%B7%BE%E5%86%9B/6096474?fromtitle=%E7%BA%A2%E5%86%9B&amp;fromid=20599627#viewPageContent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红军（元末抗元武装力量）一般指红巾军</t>
+  </si>
+  <si>
+    <t>红巾军是元朝末年人民起来反抗元朝的主要起事力量，最初是与明教、弥勒教、白莲教等民间宗教结合所发动的。因打红旗，头扎红巾，又称作“红巾”或“红军”，又因焚香聚众，又被称作“香军”。红巾军的背景起源于元顺帝统治末年政治败坏、税赋沉重，加上天灾不断，最初起于黄河以南长江以北江淮一带。</t>
+  </si>
+  <si>
+    <t>北方红军兴起之后，南方长江流域也纷纷打着红军的旗号起事，如彭莹玉、徐寿辉等在湖北，徐寿辉称帝，国号宋，此外，王权在南阳地区的“北琐红军”、孟海满在荆襄一带的“南琐红军”等。</t>
+  </si>
+  <si>
+    <t>蒙元对于红巾军的起事随即展开镇压，由也先帖木儿率兵攻刘福通红军，获得数次胜利，赞宰相脱脱督战攻徐州，杀芝麻李，并由贾鲁攻濠州（今安徽凤阳），并由答失八都鲁攻灭南北琐红军，南方元军与徐寿辉军队互有胜负。</t>
+  </si>
+  <si>
+    <t>元至正十五年（1355年）战局有所转变，红巾军北伐。刘福通先立韩林儿为帝，都亳州（今属安徽），其后数战后，击败答失八都鲁的军队，并展开反攻，甚至逼近大都，南方红军则在湖南、湖北获得胜利，郭子兴病逝后，郭天叙、张天佑相继战死，朱元璋继承了原有军队，并渡长江占领集庆（今江苏南京）。</t>
+  </si>
+  <si>
+    <t>至元十七年前（1357年）前后，在北方以察罕帖木儿、孛罗帖木儿、李思齐等为首的元军将领（但当时已不听中央号令各自为政）开始对北方红军展开反攻，红军内部也发生争执分裂，势力渐弱，1363年，北方红军在安丰（今安徽寿县）之役中败给新兴并降元的张士诚，刘福通战死，韩林儿投奔朱元璋，于1366年返回应天，至瓜步，船翻沉江而亡。</t>
+  </si>
+  <si>
+    <t>满城都是火，府官四散躲。城里无一人，红军府上坐。</t>
+  </si>
+  <si>
+    <t>利物浦足球俱乐部的别称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%88%A9%E7%89%A9%E6%B5%A6%E8%B6%B3%E7%90%83%E4%BF%B1%E4%B9%90%E9%83%A8/3464121?fromtitle=%E7%BA%A2%E5%86%9B&amp;fromid=20599629#viewPageContent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红军（利物浦足球俱乐部的别称）一般指利物浦足球俱乐部（英格兰足球俱乐部）</t>
+  </si>
+  <si>
+    <t>随后的2009-10赛季，利物浦出售了战术核心球员哈维·阿隆索，此被视为红军在之后战绩一溃千堤的开端。由于球队并未找到可以填补阿隆索在比赛中作用的球员造成重建失败，联赛战绩因此一蹶不振，最终排名为第七而无法参加下赛季欧冠联赛。</t>
+  </si>
+  <si>
+    <t>冬季转会窗口刚开始，霍奇森下课，取代他的是球队名宿“国王”达格利什，在转会窗口结束前最后一天红军以5000万英镑售出球队当家射手费尔南多·托雷斯，但球队先前补入了荷甲金靴路易斯·苏亚雷斯，对球队没有太大影响，反而在后半赛季接连取胜。</t>
+  </si>
+  <si>
+    <t>但在另一方面，红军却于前几年表现不佳的足总杯与联赛杯这两个国内双杯中大放异彩，分别都闯进了决赛。</t>
+  </si>
+  <si>
+    <t>2014年夏天，俱乐部送走了功勋门将雷纳和前锋苏亚雷斯。2014-15赛季，由于杀手锏苏亚雷斯的离去对于红军的打击非常大，虽然有库蒂尼奥在中场的高光表现，但是斯图里奇的长期养伤和新援难以融入球队注定了在这个赛季历经坎坷。利物浦在联赛中仅夺得第六，足总杯打进半决赛，而在欧冠赛场小组第三提前出局。</t>
+  </si>
+  <si>
+    <t>红军经历了一个大起大落的赛季，从赛季初的低谷表现到一波13轮不败，但在争四关键阶段再遇低谷，最后9轮只拿到8分，包括1比6遭斯托克城羞辱。</t>
+  </si>
+  <si>
+    <t>小组赛的前2场比赛，红军主客场先后与塞维利亚和莫斯科斯巴达克战平。</t>
+  </si>
+  <si>
+    <t>从2006年开始，阿迪达斯（Adidas）取代了锐步（Reebok）成为红军的球衣提供商，为此这家体育品牌每年支付利物浦1000万英镑的赞助费用。阿迪达斯曾在1985-1996年间为利物浦队设计球衣。</t>
+  </si>
+  <si>
+    <t>2011-12赛季，美国运动用品制造商勇士体育（Warrior Sports）取代阿迪达斯成为红军的新球衣赞助者，这家美国品牌每个赛季将支付红军2500万英镑的赞助费用，这是阿迪达斯赞助金额的两倍还多。</t>
+  </si>
+  <si>
+    <t>2015-16赛季，美国体育用品生产商新百伦（New Balance）以创纪录的价格取代勇士体育，成为红军球衣赞助商。《每日邮报》称新百伦每年支付至少2500万英镑赞助费给利物浦。</t>
+  </si>
+  <si>
+    <t>红军新队长！接班杰拉德 4年前就已确定是他  ．腾讯体育</t>
+  </si>
+  <si>
+    <t>今天凌晨，曼城5-0大胜纽卡斯尔，而同一轮利物浦0-0被热刺逼平，现在曼城在联赛还剩3轮的情况下领先红军3分。</t>
+  </si>
+  <si>
+    <t>凭借这场大胜，曼城的净胜球也成功反超利物浦，现在蓝月亮的净胜球为68个，红军则为64个。</t>
+  </si>
+  <si>
+    <t>全英支持利物浦夺冠？瓜帅不满：红军30年才1冠！曼城在国际上更获认可</t>
+  </si>
+  <si>
+    <t>为什么利物浦会被称作“红军”？</t>
+  </si>
+  <si>
+    <t>其实红魔的绰号开始是利物浦的称谓，而不是红军，不过后来由于曼联的成绩蒸蒸日上，再加上报纸、电视和互联网等媒体的传播，最终曼联的红魔绰号盖过了利物浦，并正式取而代之</t>
+  </si>
+  <si>
+    <t>而利物浦之所以被叫作红军，是因为曾经的传奇主教练香克利是狂热的红军粉丝。没错，就是走过了两万五千里长征的红军，并由他自己起名叫REDS，因此就被国内的球迷称之为红军。</t>
+  </si>
+  <si>
+    <t>红军的叫法是在功勋主帅香克利执教并取得辉煌之后才开始的，香克利对球队的管理非常严格,实行军事化管理。有一次有记者问他，怎么看待曼联被叫做红魔？</t>
+  </si>
+  <si>
+    <t>从那之后，香克利和他脑海里的社会主义思潮，就牢牢地镌刻在了利物浦的球队文化之中了。而“红军”这个称号，也从此与利物浦这支英格兰球队再也密不可分。</t>
+  </si>
+  <si>
+    <t>盘点“红军”利物浦队史最佳阵容</t>
+  </si>
+  <si>
+    <t>红军永不独行——利物浦21/22赛季主场球衣赏析</t>
+  </si>
+  <si>
+    <t>军事演习术语</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E7%BA%A2%E5%86%9B/20599626#viewPageContent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红军，军事演习术语。</t>
+  </si>
+  <si>
+    <t>中文名红军类型军事演习术语</t>
+  </si>
+  <si>
+    <t>红军：在一些军事演习中，对抗双方，一方称为红军（以红旗为标志），一方称为蓝军（以蓝旗为标志）。</t>
+  </si>
+  <si>
+    <t>朱日和实兵演习 红军赢了!_哔哩哔哩_bilibili</t>
+  </si>
+  <si>
+    <t>演习红军大获全胜,领导开心的合不拢嘴-片花-完整版视频在线观...</t>
+  </si>
+  <si>
+    <t>朱日和演习场，次次都是蓝军把红军打哭？蓝军到底是么来的？</t>
+  </si>
+  <si>
+    <t>一提到朱日和，即使不关注军事的人都能知道蓝军这样的梗。和我们日常看到听到的常规军演红军每次都是扫荡性击溃模拟敌国的蓝军不同，朱日和的演习场上蓝军每次都能把“红军”按在地上打。为什么次次都是蓝军把“红军”打哭？蓝军到底是怎么来的？</t>
+  </si>
+  <si>
+    <t>其实也不算每次红军都输，在上次的朱日和演习中就出现了一些情况。蓝军总指挥去了一线结果被红军侦察兵发现，给端了。结果红军在面对没有总指挥的情况下的蓝军中还是陷入苦战，最终依靠参谋长带小队上刺刀拿下蓝军指挥部才算以惨胜结束。而最终评委组判定结果为平</t>
+  </si>
+  <si>
+    <t>要知道，红军代表着我国的最先进的战术战法也是完全按照中国军队现有的老、中、青装备配置情况来的，这么一支最能代表中国战斗力的部队却次次被“敌国”的蓝军吊着打，让人不免有些忧心。蓝军基本模拟的全是美国等西方国家假想敌的战术战法，就连飞行员都英语交流。</t>
+  </si>
+  <si>
+    <t>但其实不然，蓝军在配置上其实受到了导演组的“增强”，红军装备的59就是59，而蓝军的59应该就是艾布拉姆斯。如果蓝军真的按照设定上存在，绝对是这个星球上最强大的军队。打败解放军红军自然也不在话下。为什么要设定如此不对称的战斗力呢？</t>
+  </si>
+  <si>
+    <t>要知道，现代战场瞬息万变，什么情况都有可能发生。只有和强者博弈才能增长智慧，在这样的战斗中红军能更多的发现自己的缺点和问题。而习惯了和强大无比的敌军战斗，未来才能不惧一切，在冷静中取得胜利。</t>
+  </si>
+  <si>
+    <t>“红军”和“蓝军”如何在演习场上分胜负</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 凌晨大漠，“红军”先遣队开始对“蓝军”前沿阵地展开破障行动，只见前出掩护破障行动的“红军”坦克突然冒出一股浓烟、十几名破障队员不时也有头盔冒起红烟，他们是被“蓝军”的实兵对抗系统所击中，这意味着“被击中”人员将退出战斗……“跨越—2014•朱日和”系列演习，全面使用实兵交战系统模拟对抗，使实兵对抗演练更加贴近实战。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 导调员实时记录红军战术动作</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 导调组实时监看红军指挥部作业</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 红军指挥车中，导演部调理员记录红军作战决策过程，以备战后总结</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 红军正在坦克上安装演习用设备</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 蓝军坦克为了模拟先进第三代坦克，安装了特殊的仪器设备，图中主炮根部上方的大直径窗口是“电视模拟火控系统”，它能够模拟先进火控系统工作过程，让激光束准确击中远距离上的“红军”坦克。同时其中还有高性能的红外热像仪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 在军事演习中,什么是红军什么是蓝军? - 百度知道</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 两军演习,蓝军立刻对红军采取行动,厉害-片花-完整版视频在线观...</t>
+  </si>
+  <si>
+    <t>红军（莫斯科中央陆军体育俱乐部别称）一般指莫斯科中央陆军足球俱乐部</t>
+  </si>
+  <si>
+    <t>莫斯科中央陆军足球俱乐部是一家位于俄罗斯莫斯科的足球俱乐部，1911年成立，因苏联时期俱乐部直属于苏联陆军（红军）的，球队昵称为“红军”。</t>
+  </si>
+  <si>
+    <t>莫斯科中央陆军体育俱乐部别称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E8%8E%AB%E6%96%AF%E7%A7%91%E4%B8%AD%E5%A4%AE%E9%99%86%E5%86%9B%E8%B6%B3%E7%90%83%E4%BF%B1%E4%B9%90%E9%83%A8/4089348?fromtitle=%E7%BA%A2%E5%86%9B&amp;fromid=20599628#viewPageContent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014年美国/俄罗斯制作的电影</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E7%BA%A2%E5%86%9B/24344248#viewPageContent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>《红军》2014年加布·波斯基（Gabe Polsky）导演的影片。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>师永刚 / 刘琼雄所著书籍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E7%BA%A2%E5%86%9B/53272180#viewPageContent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>《红军》是一部由师永刚 / 刘琼雄所著书籍，生活·读书·新知三联书店出版发行</t>
+  </si>
+  <si>
+    <t>在这本关于《红军》的新概念书的前言里作者这样写到，“年轻人是用好奇与神秘的思维来想象那段故事的。他们臆想中的长征，显然是用自己喜欢的自我折磨以及正在流行的小资方式——徒步行走来比对、定义。</t>
+  </si>
+  <si>
+    <t>红军 (豆瓣)  ．豆瓣网</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E7%BA%A2%E5%86%9B/60208209#viewPageContent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>《红军》是南惠萍所作的一首诗歌。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏联红军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%E7%BA%A2%E5%86%9B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>工农红军（俄语：Рабо</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>́</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>че-крестья</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>́</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>нская Кра</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>́</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>сная а</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>́</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>рмия，РККА；简称Красная армия，КА），通称苏联红军，是俄罗斯苏维埃联邦社会主义共和国及其后继军事力量。它是1922年成立的苏维埃社会主义共和国联盟的武装力量，包括陆军和空军。</t>
+    </r>
+  </si>
+  <si>
+    <t>红军起源于1917年的十月革命。在俄国内战期间，布尔什维克创立军队反击他们敌人（尤其是以“白军”为名义组成的团体）。</t>
+  </si>
+  <si>
+    <t>1946年2月起，红军与苏联海军组成苏联武装力量（俄语：Вооруженные Силы СССР（ВС СССР）／Vooruzhennye Sily SSSR），它的官方名称改为苏维埃陆军（Советская Армия）。</t>
+  </si>
+  <si>
+    <t>红军陆军在第二次世界大战欧洲战场的获胜作出了决定性贡献。在苏德战争中，红军歼敌人数达到德军（包括德意志国防军及武装党卫队）伤亡总数的75%－80%。</t>
+  </si>
+  <si>
+    <t>人民委员会决定于1918年1月28日（旧曆1918年1月15日）创建红军。他们预想组建一个“由工人阶级最优秀的分子及具有阶级意识的人”组成的实体。所有年满18岁的俄罗斯共和国公民都应当加入。其作用是“维护苏维埃政权，作为从常备军转变为国家武装力量的基础，作为支持即将到来的欧洲社会主义革命的基础”。</t>
+  </si>
+  <si>
+    <t>徵兵条件需要来自苏维埃政权、党或工会委员会管辖的革命军事委员会，或者2名属于上述组织中的人员的保证。在整个部队想要加入红军的情况中，需要整个部队集体保证，并且全体成员投票同意。</t>
+  </si>
+  <si>
+    <t>在俄罗斯帝国军队被解散的时候，零散的赤卫队部队和投靠布尔什维克的帝国军事人员十分缺乏信心去做抵御外敌、保卫新政府。因此，1918年1月，人民委员会决定工农红军将由来自“劳动人民中最有阶级意识和集体精神”的志愿者组建。这标志著赤卫队的终结和红军的建立。</t>
+  </si>
+  <si>
+    <t>红军主要由农民组成，他们的家属会得到口粮的保证，以及，他们在农场劳作时会受到帮助。[7]这样，一些仍然在家踌躇是否参军的农民，就挤满了徵兵中心。</t>
+  </si>
+  <si>
+    <t>第二个时期：1919年1月–11月，白军从东、南和西北三面向红军进攻，安东·邓尼金将军从南部进军，亚历山大·瓦西里耶维奇·高尔察克将军从东部进军，尼古拉·尼古拉耶维奇·尤登尼奇将军从西北进军。白军在每条战线上击败了红军。</t>
+  </si>
+  <si>
+    <t>列夫·托洛茨基进行军事改革并反攻；红军在6月击溃高尔察克部队，并在10月击溃邓尼金和尤登尼奇。[9]到11月中旬，白军已几乎全军覆没，到1920年1月连顿河畔罗斯托夫也失守。</t>
+  </si>
+  <si>
+    <t>红军把少数民族编成特殊的团，如东干人马三奇的东干骑兵团。红军还在1919年至1925年与倾向布尔什维克党的志愿者武装Части особого назначения (ЧОН)（chasti osobogo naznacheniya - 特殊任务部队）合作。</t>
+  </si>
+  <si>
+    <t>1918年苏俄西征发生在苏俄向上东区守备部队放弃的地区进军的同时。这一战延伸出了1919–21年的波苏战争。其中红军于1920年攻入波兰中部，但后来在那裡遭遇了失败，致使战争结束。出征波兰期间红军投入650万人，约581,000人在西部和西南部前线，但多数遭遇了供给困难。约250万人作为后备军的一部分“无法在内部调动”。</t>
+  </si>
+  <si>
+    <t>1924年，红军编制56.2万人，但不满编。1925年红军裁到五十多万人。1933年，红军规模增长至85.5万人。</t>
+  </si>
+  <si>
+    <t>起初，红军以自发组建发挥作用，没有军阶及军徽。民主选举将领。然而1918年5月29日的命令对18到40岁男性强制实行义务兵役。[65]为了铺开大规模兵役制度，布尔什维克创建了地方性的军事人民委员会（voyennyy komissariat、voyenkomat），直到2006年在俄罗斯仍在以此为名进行相似的运转。军事人民委员会不应与军事政治委员的建立相混淆。</t>
+  </si>
+  <si>
+    <t>1920年代中期引入了区域性的红军人员分配准则。任何地区体格健全的男性都被徵召到地方部队服一定期限的兵役，每年这组织起了红军约半数的兵力，为期五年。[66]第一段服役期为三个月，一年以后再服役一个月。一个普通干部作为一个稳定军事单位的核心。1925年这一体系提供了77个步兵师中的46个，还有11个骑兵师中的一个。其他人员组成普通军官并在两年任期内负责组织服役人员。这种区域性的体系最终被废除，在1937–38年所有其馀人员转入其他干部部门。[67]</t>
+  </si>
+  <si>
+    <t>俄国共产党（布尔什维克）第十一次代表大会通过了一项巩固红军的决议，决定在军中建立严密组织的军事、教育和经济环境。然而这被指出军中将有160万人难以承担。会后，党中央决定到1922年底把红军扩充80万人。扩军需要重整军队的管理和组织结构。最高军事单位现在由两三个师的部队组成。每个师由三个团组成。旅作为独立单位被废除。1922年第二季度开始建立步枪队。</t>
+  </si>
+  <si>
+    <t>多数花在红军和空军上的预算被用于为战争准备的机器生产。1923年前布尔什维克革命发生的时候俄国只有很少的机器生产力。马克思说共产主义必定出现在高度工业化的社会。布尔什维克认定他们的社会主义梦想会以由机器增加生产并降低劳动时间直到每个人都各取所需，各尽所能来发生。不知为何，虽然这没有发生，但俄国人仍然崇拜机器，而且这也使得，除了现在的德军，红军在世界上的机械化程度最高。</t>
+  </si>
+  <si>
+    <t>布尔什维克当局给红军每一支部队都派驻了政治委员，具有当各部队指挥员违背党的原则时将其替换的权威。虽然根据一些美国历史学者的观点，这有时候会导致指挥效率低下，[谁？]但党的领导人认为对军事的政治控制是绝对必要的。同样，随著红军越来越依赖来自革命前的帝俄时期的军官，它理所当然害怕兵变。这一体系在1925年被废除，由于有足够的时间培养党的干部，也不再需要对所有命令进行加签。</t>
+  </si>
+  <si>
+    <t>早期红军在革命过程中以“沙皇的遗产”的名义废除了培训专业军官的学院。特别的是，布尔什维克反对使用“军官”一词，并以“指挥员”一词取代。红军废除了肩章和军阶，使用纯粹功能性的头衔如“师指挥员”、“集团军指挥员”及类似头衔取代。但这些功能性头衔的军徽是存在的，由三角、四方形和菱形（称作“鑽石”）组成。</t>
+  </si>
+  <si>
+    <t>1930年代末对红军将领的清洗随著史达林对苏联社会的大清洗同时发生。1936与1937年，在史达林命令下，上千名红军高级军官从他们的岗位上被撤职。这场清洗以清除红军中“政治不可靠的成分”为目标，主要针对高级军官。这不可避免地为解决个人恩怨或排除角逐同一指挥权的军官之间的竞争提供了合适的藉口。</t>
+  </si>
+  <si>
+    <t>许多集团军级、军级和师级指挥官被解职，多数被拘禁或送入劳改营，其他人被处死。受害者当中红军的主要军事理论家米哈伊尔·图哈切夫斯基元帅被史达林以潜在的政敌论处。受到处分的军官会被政治军官严密搜查，即使是在做记录或在野外演练这样的情况下。</t>
+  </si>
+  <si>
+    <t>恐惧和不情愿的气氛很快在红军中自然传播开来；低级军官自杀率上升到创纪录的水平。这场清洗明显削弱了红军的战斗力。Hoyt总结到“苏联的防御体系被破坏到了不能发挥作用的程度上”而且强调他们“对高级军官的存在感到恐惧”。Clark说，“史达林不仅毁灭了军心，还毁灭了思想”。[82]Lewin提出三种严重的后果：失去了有经验且训练有素的高级军官；潜在的盟友特别是法国产生了怀疑；并且给德国带来了激励。</t>
+  </si>
+  <si>
+    <t>在二战后期，苏联红军曾经在其占领地区（如德国、匈牙利、波兰、中国东北）犯下包括强姦、抢劫等战争罪行，如卢冬生遇害。</t>
+  </si>
+  <si>
+    <t>1941年德国空军和陆军持续的进攻造成红军后勤支援困难，因为许多仓库以及苏联大多数工业生产基础在西部地区遭受的入侵中受到破坏，这迫使他们在乌拉尔山脉以东重建工业设施。在这期间，红军常常被要求在只有临时拼凑或者没有武器、运输工具及其他装备的情况下出征。1941年将生产设施完全迁移到乌拉尔山脉的决定使得苏联主要的供应体系处在德军进攻范围之外。</t>
+  </si>
+  <si>
+    <t>战争后期，红军列装了一些优秀的武器，尤其是大炮和坦克。红军重型坦克KV-1和中型坦克T-34超越了多数德军的装甲装备，[62]但在1941年，多数苏联坦克部队仍使用旧式坦克。苏联空军虽然装配相对现代的飞机，最初的表现仍逊于德国空军。</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12067,6 +12562,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -12385,11 +12887,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2890"/>
+  <dimension ref="A1:D3003"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2879" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2760" sqref="A2760:XFD2760"/>
+      <pane ySplit="1" topLeftCell="A2999" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2979" sqref="B2979:D3003"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -52858,6 +53360,1588 @@
       </c>
       <c r="D2890" s="1" t="s">
         <v>3575</v>
+      </c>
+    </row>
+    <row r="2891" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2891" s="3" t="s">
+        <v>3581</v>
+      </c>
+      <c r="B2891" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2891" t="s">
+        <v>3579</v>
+      </c>
+      <c r="D2891" s="1" t="s">
+        <v>3580</v>
+      </c>
+    </row>
+    <row r="2892" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2892" s="3" t="s">
+        <v>3582</v>
+      </c>
+      <c r="B2892" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2892" t="s">
+        <v>3579</v>
+      </c>
+      <c r="D2892" s="1" t="s">
+        <v>3580</v>
+      </c>
+    </row>
+    <row r="2893" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2893" s="3" t="s">
+        <v>3583</v>
+      </c>
+      <c r="B2893" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2893" t="s">
+        <v>3579</v>
+      </c>
+      <c r="D2893" s="1" t="s">
+        <v>3580</v>
+      </c>
+    </row>
+    <row r="2894" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A2894" s="3" t="s">
+        <v>3584</v>
+      </c>
+      <c r="B2894" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2894" t="s">
+        <v>3579</v>
+      </c>
+      <c r="D2894" s="1" t="s">
+        <v>3580</v>
+      </c>
+    </row>
+    <row r="2895" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A2895" s="3" t="s">
+        <v>3585</v>
+      </c>
+      <c r="B2895" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2895" t="s">
+        <v>3579</v>
+      </c>
+      <c r="D2895" s="1" t="s">
+        <v>3580</v>
+      </c>
+    </row>
+    <row r="2896" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2896" s="3" t="s">
+        <v>3586</v>
+      </c>
+      <c r="B2896" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2896" t="s">
+        <v>3579</v>
+      </c>
+      <c r="D2896" s="1" t="s">
+        <v>3580</v>
+      </c>
+    </row>
+    <row r="2897" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A2897" s="3" t="s">
+        <v>3587</v>
+      </c>
+      <c r="B2897" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2897" t="s">
+        <v>3579</v>
+      </c>
+      <c r="D2897" s="1" t="s">
+        <v>3580</v>
+      </c>
+    </row>
+    <row r="2898" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2898" s="3" t="s">
+        <v>3588</v>
+      </c>
+      <c r="B2898" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2898" t="s">
+        <v>3579</v>
+      </c>
+      <c r="D2898" s="1" t="s">
+        <v>3580</v>
+      </c>
+    </row>
+    <row r="2899" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A2899" s="3" t="s">
+        <v>3589</v>
+      </c>
+      <c r="B2899" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2899" t="s">
+        <v>3579</v>
+      </c>
+      <c r="D2899" s="1" t="s">
+        <v>3580</v>
+      </c>
+    </row>
+    <row r="2900" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2900" s="3" t="s">
+        <v>3590</v>
+      </c>
+      <c r="B2900" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2900" t="s">
+        <v>3579</v>
+      </c>
+      <c r="D2900" s="1" t="s">
+        <v>3580</v>
+      </c>
+    </row>
+    <row r="2901" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2901" s="3" t="s">
+        <v>3591</v>
+      </c>
+      <c r="B2901" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2901" t="s">
+        <v>3579</v>
+      </c>
+      <c r="D2901" s="1" t="s">
+        <v>3580</v>
+      </c>
+    </row>
+    <row r="2902" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2902" s="3" t="s">
+        <v>3592</v>
+      </c>
+      <c r="B2902" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2902" t="s">
+        <v>3579</v>
+      </c>
+      <c r="D2902" s="1" t="s">
+        <v>3580</v>
+      </c>
+    </row>
+    <row r="2903" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2903" s="3" t="s">
+        <v>3593</v>
+      </c>
+      <c r="B2903" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2903" t="s">
+        <v>3579</v>
+      </c>
+      <c r="D2903" s="1" t="s">
+        <v>3580</v>
+      </c>
+    </row>
+    <row r="2904" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A2904" s="3" t="s">
+        <v>3594</v>
+      </c>
+      <c r="B2904" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2904" t="s">
+        <v>3579</v>
+      </c>
+      <c r="D2904" s="1" t="s">
+        <v>3580</v>
+      </c>
+    </row>
+    <row r="2905" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2905" s="3" t="s">
+        <v>3595</v>
+      </c>
+      <c r="B2905" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2905" t="s">
+        <v>3579</v>
+      </c>
+      <c r="D2905" s="1" t="s">
+        <v>3580</v>
+      </c>
+    </row>
+    <row r="2906" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2906" s="3" t="s">
+        <v>3596</v>
+      </c>
+      <c r="B2906" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2906" t="s">
+        <v>3579</v>
+      </c>
+      <c r="D2906" s="1" t="s">
+        <v>3580</v>
+      </c>
+    </row>
+    <row r="2907" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A2907" s="3" t="s">
+        <v>3597</v>
+      </c>
+      <c r="B2907" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2907" t="s">
+        <v>3579</v>
+      </c>
+      <c r="D2907" s="1" t="s">
+        <v>3580</v>
+      </c>
+    </row>
+    <row r="2908" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2908" s="3" t="s">
+        <v>3598</v>
+      </c>
+      <c r="B2908" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2908" t="s">
+        <v>3579</v>
+      </c>
+      <c r="D2908" s="1" t="s">
+        <v>3580</v>
+      </c>
+    </row>
+    <row r="2909" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A2909" s="3" t="s">
+        <v>3599</v>
+      </c>
+      <c r="B2909" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2909" t="s">
+        <v>3579</v>
+      </c>
+      <c r="D2909" s="1" t="s">
+        <v>3580</v>
+      </c>
+    </row>
+    <row r="2910" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A2910" s="3" t="s">
+        <v>3600</v>
+      </c>
+      <c r="B2910" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2910" t="s">
+        <v>3579</v>
+      </c>
+      <c r="D2910" s="1" t="s">
+        <v>3580</v>
+      </c>
+    </row>
+    <row r="2911" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2911" s="3" t="s">
+        <v>3601</v>
+      </c>
+      <c r="B2911" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2911" t="s">
+        <v>3579</v>
+      </c>
+      <c r="D2911" s="1" t="s">
+        <v>3580</v>
+      </c>
+    </row>
+    <row r="2912" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A2912" s="3" t="s">
+        <v>3602</v>
+      </c>
+      <c r="B2912" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2912" t="s">
+        <v>3579</v>
+      </c>
+      <c r="D2912" s="1" t="s">
+        <v>3580</v>
+      </c>
+    </row>
+    <row r="2913" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2913" s="3" t="s">
+        <v>3603</v>
+      </c>
+      <c r="B2913" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2913" t="s">
+        <v>3579</v>
+      </c>
+      <c r="D2913" s="1" t="s">
+        <v>3580</v>
+      </c>
+    </row>
+    <row r="2914" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2914" s="3" t="s">
+        <v>3604</v>
+      </c>
+      <c r="B2914" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2914" t="s">
+        <v>3579</v>
+      </c>
+      <c r="D2914" s="1" t="s">
+        <v>3580</v>
+      </c>
+    </row>
+    <row r="2915" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2915" s="3" t="s">
+        <v>3605</v>
+      </c>
+      <c r="B2915" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2915" t="s">
+        <v>3579</v>
+      </c>
+      <c r="D2915" s="1" t="s">
+        <v>3580</v>
+      </c>
+    </row>
+    <row r="2916" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A2916" s="3" t="s">
+        <v>3606</v>
+      </c>
+      <c r="B2916" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2916" t="s">
+        <v>3579</v>
+      </c>
+      <c r="D2916" s="1" t="s">
+        <v>3580</v>
+      </c>
+    </row>
+    <row r="2917" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2917" s="3" t="s">
+        <v>3607</v>
+      </c>
+      <c r="B2917" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2917" t="s">
+        <v>3579</v>
+      </c>
+      <c r="D2917" s="1" t="s">
+        <v>3580</v>
+      </c>
+    </row>
+    <row r="2918" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2918" s="3" t="s">
+        <v>3608</v>
+      </c>
+      <c r="B2918" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2918" t="s">
+        <v>3579</v>
+      </c>
+      <c r="D2918" s="1" t="s">
+        <v>3580</v>
+      </c>
+    </row>
+    <row r="2919" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2919" s="3" t="s">
+        <v>3609</v>
+      </c>
+      <c r="B2919" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2919" t="s">
+        <v>3579</v>
+      </c>
+      <c r="D2919" s="1" t="s">
+        <v>3580</v>
+      </c>
+    </row>
+    <row r="2920" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2920" s="3" t="s">
+        <v>3610</v>
+      </c>
+      <c r="B2920" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2920" t="s">
+        <v>3579</v>
+      </c>
+      <c r="D2920" s="1" t="s">
+        <v>3580</v>
+      </c>
+    </row>
+    <row r="2921" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2921" s="3" t="s">
+        <v>3611</v>
+      </c>
+      <c r="B2921" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2921" t="s">
+        <v>3579</v>
+      </c>
+      <c r="D2921" s="1" t="s">
+        <v>3580</v>
+      </c>
+    </row>
+    <row r="2922" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2922" s="3" t="s">
+        <v>3612</v>
+      </c>
+      <c r="B2922" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2922" t="s">
+        <v>3579</v>
+      </c>
+      <c r="D2922" s="1" t="s">
+        <v>3580</v>
+      </c>
+    </row>
+    <row r="2923" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2923" s="3" t="s">
+        <v>3613</v>
+      </c>
+      <c r="B2923" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2923" t="s">
+        <v>3579</v>
+      </c>
+      <c r="D2923" s="1" t="s">
+        <v>3580</v>
+      </c>
+    </row>
+    <row r="2924" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2924" s="3" t="s">
+        <v>3616</v>
+      </c>
+      <c r="B2924" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2924" t="s">
+        <v>3614</v>
+      </c>
+      <c r="D2924" s="1" t="s">
+        <v>3615</v>
+      </c>
+    </row>
+    <row r="2925" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A2925" s="3" t="s">
+        <v>3617</v>
+      </c>
+      <c r="B2925" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2925" t="s">
+        <v>3614</v>
+      </c>
+      <c r="D2925" s="1" t="s">
+        <v>3615</v>
+      </c>
+    </row>
+    <row r="2926" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2926" s="3" t="s">
+        <v>3618</v>
+      </c>
+      <c r="B2926" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2926" t="s">
+        <v>3614</v>
+      </c>
+      <c r="D2926" s="1" t="s">
+        <v>3615</v>
+      </c>
+    </row>
+    <row r="2927" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A2927" s="3" t="s">
+        <v>3619</v>
+      </c>
+      <c r="B2927" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2927" t="s">
+        <v>3614</v>
+      </c>
+      <c r="D2927" s="1" t="s">
+        <v>3615</v>
+      </c>
+    </row>
+    <row r="2928" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A2928" s="3" t="s">
+        <v>3620</v>
+      </c>
+      <c r="B2928" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2928" t="s">
+        <v>3614</v>
+      </c>
+      <c r="D2928" s="1" t="s">
+        <v>3615</v>
+      </c>
+    </row>
+    <row r="2929" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A2929" s="3" t="s">
+        <v>3621</v>
+      </c>
+      <c r="B2929" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2929" t="s">
+        <v>3614</v>
+      </c>
+      <c r="D2929" s="1" t="s">
+        <v>3615</v>
+      </c>
+    </row>
+    <row r="2930" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2930" s="3" t="s">
+        <v>3622</v>
+      </c>
+      <c r="B2930" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2930" t="s">
+        <v>3614</v>
+      </c>
+      <c r="D2930" s="1" t="s">
+        <v>3615</v>
+      </c>
+    </row>
+    <row r="2931" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2931" s="3" t="s">
+        <v>3625</v>
+      </c>
+      <c r="B2931" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2931" t="s">
+        <v>3623</v>
+      </c>
+      <c r="D2931" s="1" t="s">
+        <v>3624</v>
+      </c>
+    </row>
+    <row r="2932" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A2932" s="3" t="s">
+        <v>3626</v>
+      </c>
+      <c r="B2932" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2932" t="s">
+        <v>3623</v>
+      </c>
+      <c r="D2932" s="1" t="s">
+        <v>3624</v>
+      </c>
+    </row>
+    <row r="2933" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A2933" s="3" t="s">
+        <v>3627</v>
+      </c>
+      <c r="B2933" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2933" t="s">
+        <v>3623</v>
+      </c>
+      <c r="D2933" s="1" t="s">
+        <v>3624</v>
+      </c>
+    </row>
+    <row r="2934" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2934" s="3" t="s">
+        <v>3628</v>
+      </c>
+      <c r="B2934" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2934" t="s">
+        <v>3623</v>
+      </c>
+      <c r="D2934" s="1" t="s">
+        <v>3624</v>
+      </c>
+    </row>
+    <row r="2935" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A2935" s="3" t="s">
+        <v>3629</v>
+      </c>
+      <c r="B2935" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2935" t="s">
+        <v>3623</v>
+      </c>
+      <c r="D2935" s="1" t="s">
+        <v>3624</v>
+      </c>
+    </row>
+    <row r="2936" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2936" s="3" t="s">
+        <v>3630</v>
+      </c>
+      <c r="B2936" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2936" t="s">
+        <v>3623</v>
+      </c>
+      <c r="D2936" s="1" t="s">
+        <v>3624</v>
+      </c>
+    </row>
+    <row r="2937" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2937" s="3" t="s">
+        <v>3631</v>
+      </c>
+      <c r="B2937" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2937" t="s">
+        <v>3623</v>
+      </c>
+      <c r="D2937" s="1" t="s">
+        <v>3624</v>
+      </c>
+    </row>
+    <row r="2938" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2938" s="3" t="s">
+        <v>3632</v>
+      </c>
+      <c r="B2938" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2938" t="s">
+        <v>3623</v>
+      </c>
+      <c r="D2938" s="1" t="s">
+        <v>3624</v>
+      </c>
+    </row>
+    <row r="2939" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2939" s="3" t="s">
+        <v>3633</v>
+      </c>
+      <c r="B2939" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2939" t="s">
+        <v>3623</v>
+      </c>
+      <c r="D2939" s="1" t="s">
+        <v>3624</v>
+      </c>
+    </row>
+    <row r="2940" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2940" s="3" t="s">
+        <v>3634</v>
+      </c>
+      <c r="B2940" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2940" t="s">
+        <v>3623</v>
+      </c>
+      <c r="D2940" s="1" t="s">
+        <v>3624</v>
+      </c>
+    </row>
+    <row r="2941" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2941" s="3" t="s">
+        <v>3635</v>
+      </c>
+      <c r="B2941" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2941" t="s">
+        <v>3623</v>
+      </c>
+      <c r="D2941" s="1" t="s">
+        <v>3624</v>
+      </c>
+    </row>
+    <row r="2942" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2942" s="3" t="s">
+        <v>3636</v>
+      </c>
+      <c r="B2942" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2942" t="s">
+        <v>3623</v>
+      </c>
+      <c r="D2942" s="1" t="s">
+        <v>3624</v>
+      </c>
+    </row>
+    <row r="2943" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2943" s="3" t="s">
+        <v>3637</v>
+      </c>
+      <c r="B2943" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2943" t="s">
+        <v>3623</v>
+      </c>
+      <c r="D2943" s="1" t="s">
+        <v>3624</v>
+      </c>
+    </row>
+    <row r="2944" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2944" s="3" t="s">
+        <v>3638</v>
+      </c>
+      <c r="B2944" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2944" t="s">
+        <v>3623</v>
+      </c>
+      <c r="D2944" s="1" t="s">
+        <v>3624</v>
+      </c>
+    </row>
+    <row r="2945" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2945" s="3" t="s">
+        <v>3639</v>
+      </c>
+      <c r="B2945" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2945" t="s">
+        <v>3623</v>
+      </c>
+      <c r="D2945" s="1" t="s">
+        <v>3624</v>
+      </c>
+    </row>
+    <row r="2946" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2946" s="3" t="s">
+        <v>3640</v>
+      </c>
+      <c r="B2946" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2946" t="s">
+        <v>3623</v>
+      </c>
+      <c r="D2946" s="1" t="s">
+        <v>3624</v>
+      </c>
+    </row>
+    <row r="2947" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2947" s="3" t="s">
+        <v>3641</v>
+      </c>
+      <c r="B2947" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2947" t="s">
+        <v>3623</v>
+      </c>
+      <c r="D2947" s="1" t="s">
+        <v>3624</v>
+      </c>
+    </row>
+    <row r="2948" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2948" s="3" t="s">
+        <v>3642</v>
+      </c>
+      <c r="B2948" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2948" t="s">
+        <v>3623</v>
+      </c>
+      <c r="D2948" s="1" t="s">
+        <v>3624</v>
+      </c>
+    </row>
+    <row r="2949" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2949" s="3" t="s">
+        <v>3643</v>
+      </c>
+      <c r="B2949" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2949" t="s">
+        <v>3623</v>
+      </c>
+      <c r="D2949" s="1" t="s">
+        <v>3624</v>
+      </c>
+    </row>
+    <row r="2950" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2950" s="3" t="s">
+        <v>3644</v>
+      </c>
+      <c r="B2950" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2950" t="s">
+        <v>3623</v>
+      </c>
+      <c r="D2950" s="1" t="s">
+        <v>3624</v>
+      </c>
+    </row>
+    <row r="2951" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2951" s="3" t="s">
+        <v>3645</v>
+      </c>
+      <c r="B2951" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2951" t="s">
+        <v>3623</v>
+      </c>
+      <c r="D2951" s="1" t="s">
+        <v>3624</v>
+      </c>
+    </row>
+    <row r="2952" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2952" s="3" t="s">
+        <v>3648</v>
+      </c>
+      <c r="B2952" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2952" t="s">
+        <v>3646</v>
+      </c>
+      <c r="D2952" s="1" t="s">
+        <v>3647</v>
+      </c>
+    </row>
+    <row r="2953" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2953" s="3" t="s">
+        <v>3649</v>
+      </c>
+      <c r="B2953" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2953" t="s">
+        <v>3646</v>
+      </c>
+      <c r="D2953" s="1" t="s">
+        <v>3647</v>
+      </c>
+    </row>
+    <row r="2954" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2954" s="3" t="s">
+        <v>3650</v>
+      </c>
+      <c r="B2954" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2954" t="s">
+        <v>3646</v>
+      </c>
+      <c r="D2954" s="1" t="s">
+        <v>3647</v>
+      </c>
+    </row>
+    <row r="2955" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2955" s="3" t="s">
+        <v>3651</v>
+      </c>
+      <c r="B2955" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2955" t="s">
+        <v>3646</v>
+      </c>
+      <c r="D2955" s="1" t="s">
+        <v>3647</v>
+      </c>
+    </row>
+    <row r="2956" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2956" s="3" t="s">
+        <v>3652</v>
+      </c>
+      <c r="B2956" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2956" t="s">
+        <v>3646</v>
+      </c>
+      <c r="D2956" s="1" t="s">
+        <v>3647</v>
+      </c>
+    </row>
+    <row r="2957" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2957" s="3" t="s">
+        <v>3653</v>
+      </c>
+      <c r="B2957" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2957" t="s">
+        <v>3646</v>
+      </c>
+      <c r="D2957" s="1" t="s">
+        <v>3647</v>
+      </c>
+    </row>
+    <row r="2958" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A2958" s="3" t="s">
+        <v>3654</v>
+      </c>
+      <c r="B2958" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2958" t="s">
+        <v>3646</v>
+      </c>
+      <c r="D2958" s="1" t="s">
+        <v>3647</v>
+      </c>
+    </row>
+    <row r="2959" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A2959" s="3" t="s">
+        <v>3655</v>
+      </c>
+      <c r="B2959" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2959" t="s">
+        <v>3646</v>
+      </c>
+      <c r="D2959" s="1" t="s">
+        <v>3647</v>
+      </c>
+    </row>
+    <row r="2960" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A2960" s="3" t="s">
+        <v>3656</v>
+      </c>
+      <c r="B2960" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2960" t="s">
+        <v>3646</v>
+      </c>
+      <c r="D2960" s="1" t="s">
+        <v>3647</v>
+      </c>
+    </row>
+    <row r="2961" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A2961" s="3" t="s">
+        <v>3657</v>
+      </c>
+      <c r="B2961" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2961" t="s">
+        <v>3646</v>
+      </c>
+      <c r="D2961" s="1" t="s">
+        <v>3647</v>
+      </c>
+    </row>
+    <row r="2962" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2962" s="3" t="s">
+        <v>3658</v>
+      </c>
+      <c r="B2962" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2962" t="s">
+        <v>3646</v>
+      </c>
+      <c r="D2962" s="1" t="s">
+        <v>3647</v>
+      </c>
+    </row>
+    <row r="2963" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2963" s="3" t="s">
+        <v>3659</v>
+      </c>
+      <c r="B2963" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2963" t="s">
+        <v>3646</v>
+      </c>
+      <c r="D2963" s="1" t="s">
+        <v>3647</v>
+      </c>
+    </row>
+    <row r="2964" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A2964" s="3" t="s">
+        <v>3660</v>
+      </c>
+      <c r="B2964" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2964" t="s">
+        <v>3646</v>
+      </c>
+      <c r="D2964" s="1" t="s">
+        <v>3647</v>
+      </c>
+    </row>
+    <row r="2965" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2965" s="3" t="s">
+        <v>3661</v>
+      </c>
+      <c r="B2965" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2965" t="s">
+        <v>3646</v>
+      </c>
+      <c r="D2965" s="1" t="s">
+        <v>3647</v>
+      </c>
+    </row>
+    <row r="2966" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2966" s="3" t="s">
+        <v>3662</v>
+      </c>
+      <c r="B2966" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2966" t="s">
+        <v>3646</v>
+      </c>
+      <c r="D2966" s="1" t="s">
+        <v>3647</v>
+      </c>
+    </row>
+    <row r="2967" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2967" s="3" t="s">
+        <v>3663</v>
+      </c>
+      <c r="B2967" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2967" t="s">
+        <v>3646</v>
+      </c>
+      <c r="D2967" s="1" t="s">
+        <v>3647</v>
+      </c>
+    </row>
+    <row r="2968" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2968" s="3" t="s">
+        <v>3664</v>
+      </c>
+      <c r="B2968" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2968" t="s">
+        <v>3646</v>
+      </c>
+      <c r="D2968" s="1" t="s">
+        <v>3647</v>
+      </c>
+    </row>
+    <row r="2969" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A2969" s="3" t="s">
+        <v>3665</v>
+      </c>
+      <c r="B2969" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2969" t="s">
+        <v>3646</v>
+      </c>
+      <c r="D2969" s="1" t="s">
+        <v>3647</v>
+      </c>
+    </row>
+    <row r="2970" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2970" s="3" t="s">
+        <v>3666</v>
+      </c>
+      <c r="B2970" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2970" t="s">
+        <v>3646</v>
+      </c>
+      <c r="D2970" s="1" t="s">
+        <v>3647</v>
+      </c>
+    </row>
+    <row r="2971" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2971" s="3" t="s">
+        <v>3667</v>
+      </c>
+      <c r="B2971" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2971" t="s">
+        <v>3646</v>
+      </c>
+      <c r="D2971" s="1" t="s">
+        <v>3647</v>
+      </c>
+    </row>
+    <row r="2972" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2972" s="3" t="s">
+        <v>3668</v>
+      </c>
+      <c r="B2972" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2972" t="s">
+        <v>3670</v>
+      </c>
+      <c r="D2972" s="1" t="s">
+        <v>3671</v>
+      </c>
+    </row>
+    <row r="2973" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2973" s="3" t="s">
+        <v>3669</v>
+      </c>
+      <c r="B2973" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2973" t="s">
+        <v>3670</v>
+      </c>
+      <c r="D2973" s="1" t="s">
+        <v>3671</v>
+      </c>
+    </row>
+    <row r="2974" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2974" s="3" t="s">
+        <v>3674</v>
+      </c>
+      <c r="B2974" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2974" t="s">
+        <v>3672</v>
+      </c>
+      <c r="D2974" s="1" t="s">
+        <v>3673</v>
+      </c>
+    </row>
+    <row r="2975" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2975" s="3" t="s">
+        <v>3677</v>
+      </c>
+      <c r="B2975" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2975" t="s">
+        <v>3675</v>
+      </c>
+      <c r="D2975" s="1" t="s">
+        <v>3676</v>
+      </c>
+    </row>
+    <row r="2976" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2976" s="3" t="s">
+        <v>3678</v>
+      </c>
+      <c r="B2976" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2976" t="s">
+        <v>3675</v>
+      </c>
+      <c r="D2976" s="1" t="s">
+        <v>3676</v>
+      </c>
+    </row>
+    <row r="2977" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2977" s="3" t="s">
+        <v>3679</v>
+      </c>
+      <c r="B2977" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2977" t="s">
+        <v>3675</v>
+      </c>
+      <c r="D2977" s="1" t="s">
+        <v>3676</v>
+      </c>
+    </row>
+    <row r="2978" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2978" s="3" t="s">
+        <v>3681</v>
+      </c>
+      <c r="B2978" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2978" t="s">
+        <v>266</v>
+      </c>
+      <c r="D2978" s="1" t="s">
+        <v>3680</v>
+      </c>
+    </row>
+    <row r="2979" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2979" s="3" t="s">
+        <v>3684</v>
+      </c>
+      <c r="B2979" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2979" t="s">
+        <v>3682</v>
+      </c>
+      <c r="D2979" s="1" t="s">
+        <v>3683</v>
+      </c>
+    </row>
+    <row r="2980" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2980" s="3" t="s">
+        <v>3685</v>
+      </c>
+      <c r="B2980" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2980" t="s">
+        <v>3682</v>
+      </c>
+      <c r="D2980" s="1" t="s">
+        <v>3683</v>
+      </c>
+    </row>
+    <row r="2981" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2981" s="3" t="s">
+        <v>3686</v>
+      </c>
+      <c r="B2981" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2981" t="s">
+        <v>3682</v>
+      </c>
+      <c r="D2981" s="1" t="s">
+        <v>3683</v>
+      </c>
+    </row>
+    <row r="2982" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2982" s="3" t="s">
+        <v>3687</v>
+      </c>
+      <c r="B2982" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2982" t="s">
+        <v>3682</v>
+      </c>
+      <c r="D2982" s="1" t="s">
+        <v>3683</v>
+      </c>
+    </row>
+    <row r="2983" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A2983" s="3" t="s">
+        <v>3688</v>
+      </c>
+      <c r="B2983" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2983" t="s">
+        <v>3682</v>
+      </c>
+      <c r="D2983" s="1" t="s">
+        <v>3683</v>
+      </c>
+    </row>
+    <row r="2984" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2984" s="3" t="s">
+        <v>3689</v>
+      </c>
+      <c r="B2984" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2984" t="s">
+        <v>3682</v>
+      </c>
+      <c r="D2984" s="1" t="s">
+        <v>3683</v>
+      </c>
+    </row>
+    <row r="2985" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A2985" s="3" t="s">
+        <v>3690</v>
+      </c>
+      <c r="B2985" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2985" t="s">
+        <v>3682</v>
+      </c>
+      <c r="D2985" s="1" t="s">
+        <v>3683</v>
+      </c>
+    </row>
+    <row r="2986" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2986" s="3" t="s">
+        <v>3691</v>
+      </c>
+      <c r="B2986" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2986" t="s">
+        <v>3682</v>
+      </c>
+      <c r="D2986" s="1" t="s">
+        <v>3683</v>
+      </c>
+    </row>
+    <row r="2987" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A2987" s="3" t="s">
+        <v>3692</v>
+      </c>
+      <c r="B2987" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2987" t="s">
+        <v>3682</v>
+      </c>
+      <c r="D2987" s="1" t="s">
+        <v>3683</v>
+      </c>
+    </row>
+    <row r="2988" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2988" s="3" t="s">
+        <v>3693</v>
+      </c>
+      <c r="B2988" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2988" t="s">
+        <v>3682</v>
+      </c>
+      <c r="D2988" s="1" t="s">
+        <v>3683</v>
+      </c>
+    </row>
+    <row r="2989" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2989" s="3" t="s">
+        <v>3694</v>
+      </c>
+      <c r="B2989" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2989" t="s">
+        <v>3682</v>
+      </c>
+      <c r="D2989" s="1" t="s">
+        <v>3683</v>
+      </c>
+    </row>
+    <row r="2990" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A2990" s="3" t="s">
+        <v>3695</v>
+      </c>
+      <c r="B2990" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2990" t="s">
+        <v>3682</v>
+      </c>
+      <c r="D2990" s="1" t="s">
+        <v>3683</v>
+      </c>
+    </row>
+    <row r="2991" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2991" s="3" t="s">
+        <v>3696</v>
+      </c>
+      <c r="B2991" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2991" t="s">
+        <v>3682</v>
+      </c>
+      <c r="D2991" s="1" t="s">
+        <v>3683</v>
+      </c>
+    </row>
+    <row r="2992" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A2992" s="3" t="s">
+        <v>3697</v>
+      </c>
+      <c r="B2992" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2992" t="s">
+        <v>3682</v>
+      </c>
+      <c r="D2992" s="1" t="s">
+        <v>3683</v>
+      </c>
+    </row>
+    <row r="2993" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A2993" s="3" t="s">
+        <v>3698</v>
+      </c>
+      <c r="B2993" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2993" t="s">
+        <v>3682</v>
+      </c>
+      <c r="D2993" s="1" t="s">
+        <v>3683</v>
+      </c>
+    </row>
+    <row r="2994" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A2994" s="3" t="s">
+        <v>3699</v>
+      </c>
+      <c r="B2994" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2994" t="s">
+        <v>3682</v>
+      </c>
+      <c r="D2994" s="1" t="s">
+        <v>3683</v>
+      </c>
+    </row>
+    <row r="2995" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A2995" s="3" t="s">
+        <v>3700</v>
+      </c>
+      <c r="B2995" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2995" t="s">
+        <v>3682</v>
+      </c>
+      <c r="D2995" s="1" t="s">
+        <v>3683</v>
+      </c>
+    </row>
+    <row r="2996" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A2996" s="3" t="s">
+        <v>3701</v>
+      </c>
+      <c r="B2996" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2996" t="s">
+        <v>3682</v>
+      </c>
+      <c r="D2996" s="1" t="s">
+        <v>3683</v>
+      </c>
+    </row>
+    <row r="2997" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A2997" s="3" t="s">
+        <v>3702</v>
+      </c>
+      <c r="B2997" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2997" t="s">
+        <v>3682</v>
+      </c>
+      <c r="D2997" s="1" t="s">
+        <v>3683</v>
+      </c>
+    </row>
+    <row r="2998" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A2998" s="3" t="s">
+        <v>3703</v>
+      </c>
+      <c r="B2998" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2998" t="s">
+        <v>3682</v>
+      </c>
+      <c r="D2998" s="1" t="s">
+        <v>3683</v>
+      </c>
+    </row>
+    <row r="2999" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A2999" s="3" t="s">
+        <v>3704</v>
+      </c>
+      <c r="B2999" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C2999" t="s">
+        <v>3682</v>
+      </c>
+      <c r="D2999" s="1" t="s">
+        <v>3683</v>
+      </c>
+    </row>
+    <row r="3000" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A3000" s="3" t="s">
+        <v>3705</v>
+      </c>
+      <c r="B3000" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C3000" t="s">
+        <v>3682</v>
+      </c>
+      <c r="D3000" s="1" t="s">
+        <v>3683</v>
+      </c>
+    </row>
+    <row r="3001" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A3001" s="3" t="s">
+        <v>3706</v>
+      </c>
+      <c r="B3001" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C3001" t="s">
+        <v>3682</v>
+      </c>
+      <c r="D3001" s="1" t="s">
+        <v>3683</v>
+      </c>
+    </row>
+    <row r="3002" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A3002" s="3" t="s">
+        <v>3707</v>
+      </c>
+      <c r="B3002" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C3002" t="s">
+        <v>3682</v>
+      </c>
+      <c r="D3002" s="1" t="s">
+        <v>3683</v>
+      </c>
+    </row>
+    <row r="3003" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A3003" s="3" t="s">
+        <v>3708</v>
+      </c>
+      <c r="B3003" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C3003" t="s">
+        <v>3682</v>
+      </c>
+      <c r="D3003" s="1" t="s">
+        <v>3683</v>
       </c>
     </row>
   </sheetData>
@@ -55371,8 +57455,121 @@
     <hyperlink ref="D2888" r:id="rId2505" location="viewPageContent" xr:uid="{4DBB792B-3EB0-4C00-8D88-E3559C557265}"/>
     <hyperlink ref="D2889" r:id="rId2506" location="viewPageContent" xr:uid="{EF851CDE-26B9-40A4-9653-DC475825944C}"/>
     <hyperlink ref="D2890" r:id="rId2507" location="viewPageContent" xr:uid="{73CFBEA0-BB0A-4792-896C-CFA318800085}"/>
+    <hyperlink ref="D2891" r:id="rId2508" xr:uid="{044581DF-F14B-4C29-A24E-62EB4A6C67DD}"/>
+    <hyperlink ref="D2892" r:id="rId2509" xr:uid="{E2D90E4A-F3C8-42B2-A863-F9629A316B81}"/>
+    <hyperlink ref="D2893" r:id="rId2510" xr:uid="{8274D120-0346-4EA2-B9F7-B3F6CF2715DA}"/>
+    <hyperlink ref="D2894" r:id="rId2511" xr:uid="{03991E47-78CC-4520-B309-1C40D8C2A4B3}"/>
+    <hyperlink ref="D2895" r:id="rId2512" xr:uid="{3C360AFB-C631-4B16-A338-3FFDE506959E}"/>
+    <hyperlink ref="D2896" r:id="rId2513" xr:uid="{07A804DB-0004-45FC-84C5-761D072049DE}"/>
+    <hyperlink ref="D2897" r:id="rId2514" xr:uid="{3BDE193E-511F-47B4-B297-E28375B2D217}"/>
+    <hyperlink ref="D2898" r:id="rId2515" xr:uid="{23E2F23A-0F08-4D99-BD17-8D924A1296AA}"/>
+    <hyperlink ref="D2899" r:id="rId2516" xr:uid="{D2CCDA74-9E2B-4BDF-85F0-F4CDA9469E6E}"/>
+    <hyperlink ref="D2900" r:id="rId2517" xr:uid="{3390B46A-81F4-419C-BD7A-97D861671F5C}"/>
+    <hyperlink ref="D2901" r:id="rId2518" xr:uid="{063BF6A7-CA05-4D28-9BDE-952EBDFEF369}"/>
+    <hyperlink ref="D2902" r:id="rId2519" xr:uid="{18E33C35-862C-4FD4-B5C1-5A9F03B6A5DB}"/>
+    <hyperlink ref="D2903" r:id="rId2520" xr:uid="{AE2CC244-71CB-48A0-A5FB-F5C2343BC539}"/>
+    <hyperlink ref="D2904" r:id="rId2521" xr:uid="{71348236-A73F-4A67-BBED-D9F4A5D58EF3}"/>
+    <hyperlink ref="D2905" r:id="rId2522" xr:uid="{F8257FA3-B194-4501-B5BE-B3480876DA5A}"/>
+    <hyperlink ref="D2906" r:id="rId2523" xr:uid="{64449266-5F67-4A42-AC7B-C5E2991E9074}"/>
+    <hyperlink ref="D2907" r:id="rId2524" xr:uid="{04D98C0C-F462-4979-AE91-8C51828B3DE3}"/>
+    <hyperlink ref="D2908" r:id="rId2525" xr:uid="{9C3E4B69-1668-4669-AD7D-7C1ED1175742}"/>
+    <hyperlink ref="D2909" r:id="rId2526" xr:uid="{8B470133-353C-46CF-87DE-716633D08E86}"/>
+    <hyperlink ref="D2910" r:id="rId2527" xr:uid="{BDAFF1B8-F4E3-464E-BAFE-2885E37D533D}"/>
+    <hyperlink ref="D2911" r:id="rId2528" xr:uid="{A7A899E3-85A5-4E68-B487-C3DAAAFD0D3F}"/>
+    <hyperlink ref="D2912" r:id="rId2529" xr:uid="{C3D622FC-333E-44CA-8A06-AFBCCB873EAF}"/>
+    <hyperlink ref="D2913" r:id="rId2530" xr:uid="{D4FEF703-0F1F-4832-BB08-447144187C44}"/>
+    <hyperlink ref="D2914" r:id="rId2531" xr:uid="{6D3DC8A6-4E01-42AD-83C9-5C23C825898F}"/>
+    <hyperlink ref="D2915" r:id="rId2532" xr:uid="{C12A28D5-CD7A-4C92-98ED-BC7FDB1F230C}"/>
+    <hyperlink ref="D2916" r:id="rId2533" xr:uid="{E0523ECE-5F5C-4639-AD51-E426E12E3499}"/>
+    <hyperlink ref="D2917" r:id="rId2534" xr:uid="{A9F232FD-7B94-4538-B49A-7C8E37A5C1E5}"/>
+    <hyperlink ref="D2918" r:id="rId2535" xr:uid="{F13EA345-B506-48D9-BD2A-415B7A9DDD01}"/>
+    <hyperlink ref="D2919" r:id="rId2536" xr:uid="{EB3824EB-CD96-4B7D-AD99-7EA3718E2764}"/>
+    <hyperlink ref="D2920" r:id="rId2537" xr:uid="{963E8996-3F16-42BF-BFF2-11EA92346512}"/>
+    <hyperlink ref="D2921" r:id="rId2538" xr:uid="{526EB612-809B-449E-8829-D071323C0E2F}"/>
+    <hyperlink ref="D2922" r:id="rId2539" xr:uid="{651EAB6C-7561-4228-8851-0ACB001740D1}"/>
+    <hyperlink ref="D2923" r:id="rId2540" xr:uid="{521DA5C8-BBFF-4665-9827-14AF5B9280A0}"/>
+    <hyperlink ref="D2924" r:id="rId2541" location="viewPageContent" xr:uid="{9D842130-F4DD-4F8C-9D51-3C7ECDC5DE1F}"/>
+    <hyperlink ref="D2925" r:id="rId2542" location="viewPageContent" xr:uid="{857D53BF-4684-4445-93DD-0055AF4A6C96}"/>
+    <hyperlink ref="D2926" r:id="rId2543" location="viewPageContent" xr:uid="{69793CA0-0E65-4B18-BD8D-527550C36937}"/>
+    <hyperlink ref="D2927" r:id="rId2544" location="viewPageContent" xr:uid="{8B717183-7309-4112-9915-D5F63F5AFF7D}"/>
+    <hyperlink ref="D2928" r:id="rId2545" location="viewPageContent" xr:uid="{89D923D5-2D93-4452-8C0D-853197650D9C}"/>
+    <hyperlink ref="D2929" r:id="rId2546" location="viewPageContent" xr:uid="{BA0CE732-C4D6-48E4-8E86-5B662B6CD8CC}"/>
+    <hyperlink ref="D2930" r:id="rId2547" location="viewPageContent" xr:uid="{F6EC2333-6307-4508-9E7C-E9BBBA435ED2}"/>
+    <hyperlink ref="D2931" r:id="rId2548" location="viewPageContent" xr:uid="{41E12F58-5AC5-4867-8B13-C1E636EBDCA0}"/>
+    <hyperlink ref="D2932" r:id="rId2549" location="viewPageContent" xr:uid="{7FA2967A-9105-432E-AED3-B8BBC76613E9}"/>
+    <hyperlink ref="D2933" r:id="rId2550" location="viewPageContent" xr:uid="{1AA0F14B-472B-491F-9C18-B4FB61F27971}"/>
+    <hyperlink ref="D2934" r:id="rId2551" location="viewPageContent" xr:uid="{D3207363-1206-47E2-B163-06F18ABDD3FC}"/>
+    <hyperlink ref="D2935" r:id="rId2552" location="viewPageContent" xr:uid="{F133FF63-E782-40D1-BF09-EE5C983494BC}"/>
+    <hyperlink ref="D2936" r:id="rId2553" location="viewPageContent" xr:uid="{7A0DD0A5-7762-4F2A-8EC0-FD60399F7D17}"/>
+    <hyperlink ref="D2937" r:id="rId2554" location="viewPageContent" xr:uid="{9AD7E463-202B-49CF-B31F-65ED20E5703A}"/>
+    <hyperlink ref="D2938" r:id="rId2555" location="viewPageContent" xr:uid="{369295C7-7E54-46CF-A5B1-D3D30CACAC40}"/>
+    <hyperlink ref="D2939" r:id="rId2556" location="viewPageContent" xr:uid="{3D5410DC-26C8-43BB-A400-6474198661F3}"/>
+    <hyperlink ref="D2940" r:id="rId2557" location="viewPageContent" xr:uid="{A66AF344-FD51-4003-94C1-B6B5EAE387BE}"/>
+    <hyperlink ref="D2941" r:id="rId2558" location="viewPageContent" xr:uid="{364F09E5-630E-4789-BEEA-22D88887F576}"/>
+    <hyperlink ref="D2942" r:id="rId2559" location="viewPageContent" xr:uid="{ED982394-84B3-492A-A265-5F00FE28A7C8}"/>
+    <hyperlink ref="D2943" r:id="rId2560" location="viewPageContent" xr:uid="{C7DDDAA3-6339-4B61-BC38-B61ABC7402E8}"/>
+    <hyperlink ref="D2944" r:id="rId2561" location="viewPageContent" xr:uid="{CFEE2648-BEEC-40EC-AB43-BDBFCCC00960}"/>
+    <hyperlink ref="D2945" r:id="rId2562" location="viewPageContent" xr:uid="{1AE276EC-4198-41C2-9EBF-CC795D09A2EB}"/>
+    <hyperlink ref="D2946" r:id="rId2563" location="viewPageContent" xr:uid="{C8E8EBDC-0436-4C07-BAAC-6882BFDCF515}"/>
+    <hyperlink ref="D2947" r:id="rId2564" location="viewPageContent" xr:uid="{D7AF57B2-D943-4CAB-892E-DD3B0EF34519}"/>
+    <hyperlink ref="D2948" r:id="rId2565" location="viewPageContent" xr:uid="{61625F91-82F0-4332-89C7-423E81272CBF}"/>
+    <hyperlink ref="D2949" r:id="rId2566" location="viewPageContent" xr:uid="{9695C45B-F4D8-4F29-A3F0-9C6C3980FBD6}"/>
+    <hyperlink ref="D2950" r:id="rId2567" location="viewPageContent" xr:uid="{4A570F68-C2D8-48BB-8BEC-8EE4EEB45DA4}"/>
+    <hyperlink ref="D2951" r:id="rId2568" location="viewPageContent" xr:uid="{A2AA6169-397C-43F7-ABC3-95AC040B7B2E}"/>
+    <hyperlink ref="D2952" r:id="rId2569" location="viewPageContent" xr:uid="{3F46ECE7-6F9E-4BA6-BC62-256DCC937EF0}"/>
+    <hyperlink ref="D2953" r:id="rId2570" location="viewPageContent" xr:uid="{C37F4E16-ABA0-4044-936E-F90E1E1B52F4}"/>
+    <hyperlink ref="D2954" r:id="rId2571" location="viewPageContent" xr:uid="{E30A5A73-088B-4817-BA01-86E06D9409AD}"/>
+    <hyperlink ref="D2955" r:id="rId2572" location="viewPageContent" xr:uid="{A86F7237-50ED-461F-A323-1CA429AFA8D6}"/>
+    <hyperlink ref="D2956" r:id="rId2573" location="viewPageContent" xr:uid="{21596EC2-73C7-4379-B19E-22880CC98D5C}"/>
+    <hyperlink ref="D2957" r:id="rId2574" location="viewPageContent" xr:uid="{A20788B6-2800-4515-A284-25397C739FE0}"/>
+    <hyperlink ref="D2958" r:id="rId2575" location="viewPageContent" xr:uid="{59E86263-820A-4F98-8407-890F55D00AAB}"/>
+    <hyperlink ref="D2959" r:id="rId2576" location="viewPageContent" xr:uid="{3D36F968-FCB5-43BB-ADD8-477285EC68D2}"/>
+    <hyperlink ref="D2960" r:id="rId2577" location="viewPageContent" xr:uid="{1CEC86B3-46F6-4676-9D28-E96164A4A13A}"/>
+    <hyperlink ref="D2961" r:id="rId2578" location="viewPageContent" xr:uid="{22B0A0F6-F38D-4BCD-8C95-BC072456365A}"/>
+    <hyperlink ref="D2962" r:id="rId2579" location="viewPageContent" xr:uid="{73B22A3D-2666-405A-AFC9-DD547D0AD3FF}"/>
+    <hyperlink ref="D2963" r:id="rId2580" location="viewPageContent" xr:uid="{399DD2C4-91FD-4960-A8D6-9CCFE8B4113E}"/>
+    <hyperlink ref="D2964" r:id="rId2581" location="viewPageContent" xr:uid="{D2318914-ECA3-486A-9A5F-D35B22D62FFC}"/>
+    <hyperlink ref="D2965" r:id="rId2582" location="viewPageContent" xr:uid="{FE0DE2BB-C036-4B2B-9D42-9B3F4FA54C9E}"/>
+    <hyperlink ref="D2966" r:id="rId2583" location="viewPageContent" xr:uid="{ECA6D135-A9C3-47CB-B04C-41D4772A11C6}"/>
+    <hyperlink ref="D2967" r:id="rId2584" location="viewPageContent" xr:uid="{3933A445-456A-4F06-82E8-84894E95F037}"/>
+    <hyperlink ref="D2968" r:id="rId2585" location="viewPageContent" xr:uid="{BD197547-4DD1-4CA2-A14E-CF9EDB6E01F7}"/>
+    <hyperlink ref="D2969" r:id="rId2586" location="viewPageContent" xr:uid="{64493964-575C-4A0F-8D77-19344386A095}"/>
+    <hyperlink ref="D2970" r:id="rId2587" location="viewPageContent" xr:uid="{93662D3B-8108-402D-9E86-8537EACBC116}"/>
+    <hyperlink ref="D2971" r:id="rId2588" location="viewPageContent" xr:uid="{6D3A863A-585D-4F3B-A39A-E432AFEABE83}"/>
+    <hyperlink ref="D2972" r:id="rId2589" location="viewPageContent" xr:uid="{CA65293D-1971-4BEE-A256-857EF2528136}"/>
+    <hyperlink ref="D2973" r:id="rId2590" location="viewPageContent" xr:uid="{0E243DB2-3E98-45D8-B5AA-97B8E8EC9B97}"/>
+    <hyperlink ref="D2974" r:id="rId2591" location="viewPageContent" xr:uid="{AA6F93B5-3BDB-4C5C-AD43-100492E51841}"/>
+    <hyperlink ref="D2975" r:id="rId2592" location="viewPageContent" xr:uid="{BF4AEC4B-FF6C-4D31-B53A-3D21BB5507CB}"/>
+    <hyperlink ref="D2976" r:id="rId2593" location="viewPageContent" xr:uid="{3BD01420-EC05-43BC-B4F5-CF7A86023E67}"/>
+    <hyperlink ref="D2977" r:id="rId2594" location="viewPageContent" xr:uid="{A4D254A5-15EE-449C-B6F4-02D47C70F19B}"/>
+    <hyperlink ref="D2978" r:id="rId2595" location="viewPageContent" xr:uid="{2F61B45B-FB48-4842-A998-986A74D38684}"/>
+    <hyperlink ref="D2979" r:id="rId2596" xr:uid="{9454A947-0A0C-451B-905A-93B21262A13C}"/>
+    <hyperlink ref="D2980" r:id="rId2597" xr:uid="{92DB6343-90FE-4E75-A20F-92839946AE46}"/>
+    <hyperlink ref="D2981" r:id="rId2598" xr:uid="{E2060306-2018-465D-8C30-94ABEDABE144}"/>
+    <hyperlink ref="D2982" r:id="rId2599" xr:uid="{001B0251-61FD-4824-A2FC-464955B96921}"/>
+    <hyperlink ref="D2983" r:id="rId2600" xr:uid="{55E8A04C-9F47-4E92-A9DA-D1ABE4C067B6}"/>
+    <hyperlink ref="D2984" r:id="rId2601" xr:uid="{D4718B95-02E8-4D9C-B658-CB1520B2F66A}"/>
+    <hyperlink ref="D2985" r:id="rId2602" xr:uid="{105327F6-D99E-487D-9366-56890DAA5905}"/>
+    <hyperlink ref="D2986" r:id="rId2603" xr:uid="{1AE6F935-78A6-4F86-82E6-9492B6FC2D1E}"/>
+    <hyperlink ref="D2987" r:id="rId2604" xr:uid="{1362942C-93D4-42B5-B5BD-6650FAC1E299}"/>
+    <hyperlink ref="D2988" r:id="rId2605" xr:uid="{3456CA53-C496-4C96-A175-8C834B1327AB}"/>
+    <hyperlink ref="D2989" r:id="rId2606" xr:uid="{93DEBAA8-270B-4A42-A4DE-FE828E10CD23}"/>
+    <hyperlink ref="D2990" r:id="rId2607" xr:uid="{0E05A6A9-308E-48D7-B597-0B39EFB3DC17}"/>
+    <hyperlink ref="D2991" r:id="rId2608" xr:uid="{893C46CE-AC9F-4586-88BC-528C4FA6E760}"/>
+    <hyperlink ref="D2992" r:id="rId2609" xr:uid="{19F97426-240A-48FB-B06E-95487F6D9E9D}"/>
+    <hyperlink ref="D2993" r:id="rId2610" xr:uid="{39DB999E-CEF1-4BD1-841F-9C34404DC903}"/>
+    <hyperlink ref="D2994" r:id="rId2611" xr:uid="{BB66EDE4-839C-4416-842C-0AC2C2905143}"/>
+    <hyperlink ref="D2995" r:id="rId2612" xr:uid="{092B04D0-414F-4D0F-8BB7-2C9A29251FBC}"/>
+    <hyperlink ref="D2996" r:id="rId2613" xr:uid="{2F1DC18B-D567-4EAA-B260-AD75B034EEF8}"/>
+    <hyperlink ref="D2997" r:id="rId2614" xr:uid="{4804C14A-1BEB-463E-BD8E-B1237DD4979F}"/>
+    <hyperlink ref="D2998" r:id="rId2615" xr:uid="{ABC05A05-EB83-47E2-9518-8EDA48F79E87}"/>
+    <hyperlink ref="D2999" r:id="rId2616" xr:uid="{38767F1B-DAC9-4288-A876-CE683258914F}"/>
+    <hyperlink ref="D3000" r:id="rId2617" xr:uid="{12E0052E-EA6B-4E53-BE71-955F255A41CD}"/>
+    <hyperlink ref="D3001" r:id="rId2618" xr:uid="{A79F1D6B-E83B-4F25-84E6-2D2AEEB57677}"/>
+    <hyperlink ref="D3002" r:id="rId2619" xr:uid="{A3CD1327-D505-4677-AE71-0957DBC0FF5A}"/>
+    <hyperlink ref="D3003" r:id="rId2620" xr:uid="{EF24CBAF-D4C4-49BE-BB72-7132EF1EBA24}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2508"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2621"/>
 </worksheet>
 </file>